--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20655" windowHeight="9075" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -168,15 +168,9 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>relationship</t>
   </si>
   <si>
-    <t>Relationship registration</t>
-  </si>
-  <si>
     <t>The start date can not be in the future</t>
   </si>
   <si>
@@ -190,13 +184,55 @@
   </si>
   <si>
     <t>.&lt;= today()</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>Individuo A</t>
+  </si>
+  <si>
+    <t>Individuo B</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Tipo de relação</t>
+  </si>
+  <si>
+    <t>Data de Inicio (da relação)</t>
+  </si>
+  <si>
+    <t>concat("Relacao_",${individualA},"_", ${individualB})</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Divorciado/a</t>
+  </si>
+  <si>
+    <t>Viúvo/a</t>
+  </si>
+  <si>
+    <t>Vivendo Maritalmente</t>
+  </si>
+  <si>
+    <t>Registo de Parentesco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1344,33 +1380,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1378,59 +1415,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1442,15 +1482,16 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1462,15 +1503,16 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1482,8 +1524,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1491,28 +1534,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1520,19 +1566,22 @@
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="N6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1540,19 +1589,22 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1560,16 +1612,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="24">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -1577,90 +1632,101 @@
         <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H15" s="2"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="7"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1668,8 +1734,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1677,8 +1744,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1686,27 +1754,30 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1714,8 +1785,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1723,8 +1795,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1732,8 +1805,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1741,8 +1815,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1750,9 +1825,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1760,9 +1836,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1770,9 +1847,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1780,8 +1858,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1789,64 +1868,65 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="2"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="J84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1855,23 +1935,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1879,13 +1960,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1893,13 +1977,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -1907,13 +1994,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -1921,13 +2011,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -1935,376 +2028,440 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1">
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="14"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="14"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="14"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="14"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="14"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="14"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="14"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="14"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="14"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="14"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="14"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="14"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="14"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="14"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="14"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="14"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="14"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="14"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2313,21 +2470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2337,16 +2495,22 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20655" windowHeight="9075" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="1425" windowWidth="20550" windowHeight="930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>Data de Inicio (da relação)</t>
   </si>
   <si>
-    <t>concat("Relacao_",${individualA},"_", ${individualB})</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -225,7 +222,10 @@
     <t>Vivendo Maritalmente</t>
   </si>
   <si>
-    <t>Registo de Parentesco</t>
+    <t>Registo de Relacionamento</t>
+  </si>
+  <si>
+    <t>concat("Relationship_",${individualA},"_", ${individualB})</t>
   </si>
 </sst>
 </file>
@@ -1383,11 +1383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -1939,7 +1939,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -1977,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>35</v>
@@ -1994,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>36</v>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>37</v>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>38</v>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2499,9 +2499,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2510,7 +2510,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
